--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.51073108148076</v>
+        <v>3.181738666666666</v>
       </c>
       <c r="H2">
-        <v>2.51073108148076</v>
+        <v>9.545216</v>
       </c>
       <c r="I2">
-        <v>0.01153570059941277</v>
+        <v>0.01184997401866639</v>
       </c>
       <c r="J2">
-        <v>0.01153570059941277</v>
+        <v>0.01184997401866639</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.0315017085253</v>
+        <v>10.38865533333333</v>
       </c>
       <c r="N2">
-        <v>10.0315017085253</v>
+        <v>31.165966</v>
       </c>
       <c r="O2">
-        <v>0.2714650170427939</v>
+        <v>0.261404167660619</v>
       </c>
       <c r="P2">
-        <v>0.2714650170427939</v>
+        <v>0.261404167660619</v>
       </c>
       <c r="Q2">
-        <v>25.18640313352182</v>
+        <v>33.05398636873956</v>
       </c>
       <c r="R2">
-        <v>25.18640313352182</v>
+        <v>297.485877318656</v>
       </c>
       <c r="S2">
-        <v>0.003131539159820154</v>
+        <v>0.003097632595149447</v>
       </c>
       <c r="T2">
-        <v>0.003131539159820154</v>
+        <v>0.003097632595149448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.51073108148076</v>
+        <v>3.181738666666666</v>
       </c>
       <c r="H3">
-        <v>2.51073108148076</v>
+        <v>9.545216</v>
       </c>
       <c r="I3">
-        <v>0.01153570059941277</v>
+        <v>0.01184997401866639</v>
       </c>
       <c r="J3">
-        <v>0.01153570059941277</v>
+        <v>0.01184997401866639</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.3789457898495</v>
+        <v>10.56216766666667</v>
       </c>
       <c r="N3">
-        <v>10.3789457898495</v>
+        <v>31.686503</v>
       </c>
       <c r="O3">
-        <v>0.2808672896235715</v>
+        <v>0.2657701655321932</v>
       </c>
       <c r="P3">
-        <v>0.2808672896235715</v>
+        <v>0.2657701655321932</v>
       </c>
       <c r="Q3">
-        <v>26.05874178757902</v>
+        <v>33.60605726884977</v>
       </c>
       <c r="R3">
-        <v>26.05874178757902</v>
+        <v>302.454515419648</v>
       </c>
       <c r="S3">
-        <v>0.003240000961266073</v>
+        <v>0.003149369556493154</v>
       </c>
       <c r="T3">
-        <v>0.003240000961266073</v>
+        <v>0.003149369556493155</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.51073108148076</v>
+        <v>3.181738666666666</v>
       </c>
       <c r="H4">
-        <v>2.51073108148076</v>
+        <v>9.545216</v>
       </c>
       <c r="I4">
-        <v>0.01153570059941277</v>
+        <v>0.01184997401866639</v>
       </c>
       <c r="J4">
-        <v>0.01153570059941277</v>
+        <v>0.01184997401866639</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.3866397966897</v>
+        <v>14.90560833333333</v>
       </c>
       <c r="N4">
-        <v>13.3866397966897</v>
+        <v>44.716825</v>
       </c>
       <c r="O4">
-        <v>0.3622592614888101</v>
+        <v>0.3750618357072762</v>
       </c>
       <c r="P4">
-        <v>0.3622592614888101</v>
+        <v>0.3750618357072762</v>
       </c>
       <c r="Q4">
-        <v>33.61025261413612</v>
+        <v>47.42575038435555</v>
       </c>
       <c r="R4">
-        <v>33.61025261413612</v>
+        <v>426.8317534592</v>
       </c>
       <c r="S4">
-        <v>0.004178914379899292</v>
+        <v>0.004444473008524545</v>
       </c>
       <c r="T4">
-        <v>0.004178914379899292</v>
+        <v>0.004444473008524546</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.51073108148076</v>
+        <v>3.181738666666666</v>
       </c>
       <c r="H5">
-        <v>2.51073108148076</v>
+        <v>9.545216</v>
       </c>
       <c r="I5">
-        <v>0.01153570059941277</v>
+        <v>0.01184997401866639</v>
       </c>
       <c r="J5">
-        <v>0.01153570059941277</v>
+        <v>0.01184997401866639</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.15611506523789</v>
+        <v>3.885304333333333</v>
       </c>
       <c r="N5">
-        <v>3.15611506523789</v>
+        <v>11.655913</v>
       </c>
       <c r="O5">
-        <v>0.08540843184482437</v>
+        <v>0.09776383109991163</v>
       </c>
       <c r="P5">
-        <v>0.08540843184482437</v>
+        <v>0.09776383109991162</v>
       </c>
       <c r="Q5">
-        <v>7.924156191022448</v>
+        <v>12.36202302913422</v>
       </c>
       <c r="R5">
-        <v>7.924156191022448</v>
+        <v>111.258207262208</v>
       </c>
       <c r="S5">
-        <v>0.0009852460984272448</v>
+        <v>0.001158498858499242</v>
       </c>
       <c r="T5">
-        <v>0.0009852460984272448</v>
+        <v>0.001158498858499242</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.50064913779218</v>
+        <v>5.848171333333333</v>
       </c>
       <c r="H6">
-        <v>5.50064913779218</v>
+        <v>17.544514</v>
       </c>
       <c r="I6">
-        <v>0.02527305374280276</v>
+        <v>0.02178075750932496</v>
       </c>
       <c r="J6">
-        <v>0.02527305374280276</v>
+        <v>0.02178075750932496</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.0315017085253</v>
+        <v>10.38865533333333</v>
       </c>
       <c r="N6">
-        <v>10.0315017085253</v>
+        <v>31.165966</v>
       </c>
       <c r="O6">
-        <v>0.2714650170427939</v>
+        <v>0.261404167660619</v>
       </c>
       <c r="P6">
-        <v>0.2714650170427939</v>
+        <v>0.261404167660619</v>
       </c>
       <c r="Q6">
-        <v>55.17977122376046</v>
+        <v>60.75463631228045</v>
       </c>
       <c r="R6">
-        <v>55.17977122376046</v>
+        <v>546.791726810524</v>
       </c>
       <c r="S6">
-        <v>0.006860749965013398</v>
+        <v>0.005693580787742867</v>
       </c>
       <c r="T6">
-        <v>0.006860749965013398</v>
+        <v>0.005693580787742867</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.50064913779218</v>
+        <v>5.848171333333333</v>
       </c>
       <c r="H7">
-        <v>5.50064913779218</v>
+        <v>17.544514</v>
       </c>
       <c r="I7">
-        <v>0.02527305374280276</v>
+        <v>0.02178075750932496</v>
       </c>
       <c r="J7">
-        <v>0.02527305374280276</v>
+        <v>0.02178075750932496</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.3789457898495</v>
+        <v>10.56216766666667</v>
       </c>
       <c r="N7">
-        <v>10.3789457898495</v>
+        <v>31.686503</v>
       </c>
       <c r="O7">
-        <v>0.2808672896235715</v>
+        <v>0.2657701655321932</v>
       </c>
       <c r="P7">
-        <v>0.2808672896235715</v>
+        <v>0.2657701655321932</v>
       </c>
       <c r="Q7">
-        <v>57.09093921012742</v>
+        <v>61.76936616606022</v>
       </c>
       <c r="R7">
-        <v>57.09093921012742</v>
+        <v>555.924295494542</v>
       </c>
       <c r="S7">
-        <v>0.007098374105251872</v>
+        <v>0.005788675528669854</v>
       </c>
       <c r="T7">
-        <v>0.007098374105251872</v>
+        <v>0.005788675528669854</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.50064913779218</v>
+        <v>5.848171333333333</v>
       </c>
       <c r="H8">
-        <v>5.50064913779218</v>
+        <v>17.544514</v>
       </c>
       <c r="I8">
-        <v>0.02527305374280276</v>
+        <v>0.02178075750932496</v>
       </c>
       <c r="J8">
-        <v>0.02527305374280276</v>
+        <v>0.02178075750932496</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.3866397966897</v>
+        <v>14.90560833333333</v>
       </c>
       <c r="N8">
-        <v>13.3866397966897</v>
+        <v>44.716825</v>
       </c>
       <c r="O8">
-        <v>0.3622592614888101</v>
+        <v>0.3750618357072762</v>
       </c>
       <c r="P8">
-        <v>0.3622592614888101</v>
+        <v>0.3750618357072762</v>
       </c>
       <c r="Q8">
-        <v>73.63520865559568</v>
+        <v>87.17055136089444</v>
       </c>
       <c r="R8">
-        <v>73.63520865559568</v>
+        <v>784.53496224805</v>
       </c>
       <c r="S8">
-        <v>0.009155397784434737</v>
+        <v>0.008169130894542461</v>
       </c>
       <c r="T8">
-        <v>0.009155397784434737</v>
+        <v>0.008169130894542461</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.50064913779218</v>
+        <v>5.848171333333333</v>
       </c>
       <c r="H9">
-        <v>5.50064913779218</v>
+        <v>17.544514</v>
       </c>
       <c r="I9">
-        <v>0.02527305374280276</v>
+        <v>0.02178075750932496</v>
       </c>
       <c r="J9">
-        <v>0.02527305374280276</v>
+        <v>0.02178075750932496</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.15611506523789</v>
+        <v>3.885304333333333</v>
       </c>
       <c r="N9">
-        <v>3.15611506523789</v>
+        <v>11.655913</v>
       </c>
       <c r="O9">
-        <v>0.08540843184482437</v>
+        <v>0.09776383109991163</v>
       </c>
       <c r="P9">
-        <v>0.08540843184482437</v>
+        <v>0.09776383109991162</v>
       </c>
       <c r="Q9">
-        <v>17.36068161237371</v>
+        <v>22.72192542347578</v>
       </c>
       <c r="R9">
-        <v>17.36068161237371</v>
+        <v>204.497328811282</v>
       </c>
       <c r="S9">
-        <v>0.002158531888102753</v>
+        <v>0.002129370298369777</v>
       </c>
       <c r="T9">
-        <v>0.002158531888102753</v>
+        <v>0.002129370298369777</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>203.116856352358</v>
+        <v>240.2954863333333</v>
       </c>
       <c r="H10">
-        <v>203.116856352358</v>
+        <v>720.8864590000001</v>
       </c>
       <c r="I10">
-        <v>0.9332322600606193</v>
+        <v>0.894949450023804</v>
       </c>
       <c r="J10">
-        <v>0.9332322600606193</v>
+        <v>0.894949450023804</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.0315017085253</v>
+        <v>10.38865533333333</v>
       </c>
       <c r="N10">
-        <v>10.0315017085253</v>
+        <v>31.165966</v>
       </c>
       <c r="O10">
-        <v>0.2714650170427939</v>
+        <v>0.261404167660619</v>
       </c>
       <c r="P10">
-        <v>0.2714650170427939</v>
+        <v>0.261404167660619</v>
       </c>
       <c r="Q10">
-        <v>2037.567091528967</v>
+        <v>2496.346985672711</v>
       </c>
       <c r="R10">
-        <v>2037.567091528967</v>
+        <v>22467.1228710544</v>
       </c>
       <c r="S10">
-        <v>0.253339911382241</v>
+        <v>0.2339435160818012</v>
       </c>
       <c r="T10">
-        <v>0.253339911382241</v>
+        <v>0.2339435160818012</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>203.116856352358</v>
+        <v>240.2954863333333</v>
       </c>
       <c r="H11">
-        <v>203.116856352358</v>
+        <v>720.8864590000001</v>
       </c>
       <c r="I11">
-        <v>0.9332322600606193</v>
+        <v>0.894949450023804</v>
       </c>
       <c r="J11">
-        <v>0.9332322600606193</v>
+        <v>0.894949450023804</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.3789457898495</v>
+        <v>10.56216766666667</v>
       </c>
       <c r="N11">
-        <v>10.3789457898495</v>
+        <v>31.686503</v>
       </c>
       <c r="O11">
-        <v>0.2808672896235715</v>
+        <v>0.2657701655321932</v>
       </c>
       <c r="P11">
-        <v>0.2808672896235715</v>
+        <v>0.2657701655321932</v>
       </c>
       <c r="Q11">
-        <v>2108.138841085772</v>
+        <v>2538.041216195875</v>
       </c>
       <c r="R11">
-        <v>2108.138841085772</v>
+        <v>22842.37094576288</v>
       </c>
       <c r="S11">
-        <v>0.2621144154725062</v>
+        <v>0.2378508634757716</v>
       </c>
       <c r="T11">
-        <v>0.2621144154725062</v>
+        <v>0.2378508634757716</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>203.116856352358</v>
+        <v>240.2954863333333</v>
       </c>
       <c r="H12">
-        <v>203.116856352358</v>
+        <v>720.8864590000001</v>
       </c>
       <c r="I12">
-        <v>0.9332322600606193</v>
+        <v>0.894949450023804</v>
       </c>
       <c r="J12">
-        <v>0.9332322600606193</v>
+        <v>0.894949450023804</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.3866397966897</v>
+        <v>14.90560833333333</v>
       </c>
       <c r="N12">
-        <v>13.3866397966897</v>
+        <v>44.716825</v>
       </c>
       <c r="O12">
-        <v>0.3622592614888101</v>
+        <v>0.3750618357072762</v>
       </c>
       <c r="P12">
-        <v>0.3622592614888101</v>
+        <v>0.3750618357072762</v>
       </c>
       <c r="Q12">
-        <v>2719.052192624981</v>
+        <v>3581.750403552519</v>
       </c>
       <c r="R12">
-        <v>2719.052192624981</v>
+        <v>32235.75363197268</v>
       </c>
       <c r="S12">
-        <v>0.3380720293270931</v>
+        <v>0.3356613835911452</v>
       </c>
       <c r="T12">
-        <v>0.3380720293270931</v>
+        <v>0.3356613835911452</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>203.116856352358</v>
+        <v>240.2954863333333</v>
       </c>
       <c r="H13">
-        <v>203.116856352358</v>
+        <v>720.8864590000001</v>
       </c>
       <c r="I13">
-        <v>0.9332322600606193</v>
+        <v>0.894949450023804</v>
       </c>
       <c r="J13">
-        <v>0.9332322600606193</v>
+        <v>0.894949450023804</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.15611506523789</v>
+        <v>3.885304333333333</v>
       </c>
       <c r="N13">
-        <v>3.15611506523789</v>
+        <v>11.655913</v>
       </c>
       <c r="O13">
-        <v>0.08540843184482437</v>
+        <v>0.09776383109991163</v>
       </c>
       <c r="P13">
-        <v>0.08540843184482437</v>
+        <v>0.09776383109991162</v>
       </c>
       <c r="Q13">
-        <v>641.0601703374375</v>
+        <v>933.6210943313408</v>
       </c>
       <c r="R13">
-        <v>641.0601703374375</v>
+        <v>8402.589848982068</v>
       </c>
       <c r="S13">
-        <v>0.07970590387877882</v>
+        <v>0.08749368687508598</v>
       </c>
       <c r="T13">
-        <v>0.07970590387877882</v>
+        <v>0.08749368687508596</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.52053645638706</v>
+        <v>19.17634566666667</v>
       </c>
       <c r="H14">
-        <v>6.52053645638706</v>
+        <v>57.529037</v>
       </c>
       <c r="I14">
-        <v>0.02995898559716515</v>
+        <v>0.07141981844820457</v>
       </c>
       <c r="J14">
-        <v>0.02995898559716515</v>
+        <v>0.07141981844820458</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.0315017085253</v>
+        <v>10.38865533333333</v>
       </c>
       <c r="N14">
-        <v>10.0315017085253</v>
+        <v>31.165966</v>
       </c>
       <c r="O14">
-        <v>0.2714650170427939</v>
+        <v>0.261404167660619</v>
       </c>
       <c r="P14">
-        <v>0.2714650170427939</v>
+        <v>0.261404167660619</v>
       </c>
       <c r="Q14">
-        <v>65.4107726027483</v>
+        <v>199.2164456838602</v>
       </c>
       <c r="R14">
-        <v>65.4107726027483</v>
+        <v>1792.948011154742</v>
       </c>
       <c r="S14">
-        <v>0.008132816535719255</v>
+        <v>0.01866943819592544</v>
       </c>
       <c r="T14">
-        <v>0.008132816535719255</v>
+        <v>0.01866943819592544</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.52053645638706</v>
+        <v>19.17634566666667</v>
       </c>
       <c r="H15">
-        <v>6.52053645638706</v>
+        <v>57.529037</v>
       </c>
       <c r="I15">
-        <v>0.02995898559716515</v>
+        <v>0.07141981844820457</v>
       </c>
       <c r="J15">
-        <v>0.02995898559716515</v>
+        <v>0.07141981844820458</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.3789457898495</v>
+        <v>10.56216766666667</v>
       </c>
       <c r="N15">
-        <v>10.3789457898495</v>
+        <v>31.686503</v>
       </c>
       <c r="O15">
-        <v>0.2808672896235715</v>
+        <v>0.2657701655321932</v>
       </c>
       <c r="P15">
-        <v>0.2808672896235715</v>
+        <v>0.2657701655321932</v>
       </c>
       <c r="Q15">
-        <v>67.67629440157864</v>
+        <v>202.5437781652901</v>
       </c>
       <c r="R15">
-        <v>67.67629440157864</v>
+        <v>1822.894003487611</v>
       </c>
       <c r="S15">
-        <v>0.008414499084547394</v>
+        <v>0.01898125697125851</v>
       </c>
       <c r="T15">
-        <v>0.008414499084547394</v>
+        <v>0.01898125697125852</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.52053645638706</v>
+        <v>19.17634566666667</v>
       </c>
       <c r="H16">
-        <v>6.52053645638706</v>
+        <v>57.529037</v>
       </c>
       <c r="I16">
-        <v>0.02995898559716515</v>
+        <v>0.07141981844820457</v>
       </c>
       <c r="J16">
-        <v>0.02995898559716515</v>
+        <v>0.07141981844820458</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.3866397966897</v>
+        <v>14.90560833333333</v>
       </c>
       <c r="N16">
-        <v>13.3866397966897</v>
+        <v>44.716825</v>
       </c>
       <c r="O16">
-        <v>0.3622592614888101</v>
+        <v>0.3750618357072762</v>
       </c>
       <c r="P16">
-        <v>0.3622592614888101</v>
+        <v>0.3750618357072762</v>
       </c>
       <c r="Q16">
-        <v>87.28807282283704</v>
+        <v>285.8350977719472</v>
       </c>
       <c r="R16">
-        <v>87.28807282283704</v>
+        <v>2572.515879947525</v>
       </c>
       <c r="S16">
-        <v>0.01085291999738295</v>
+        <v>0.026786848213064</v>
       </c>
       <c r="T16">
-        <v>0.01085291999738295</v>
+        <v>0.026786848213064</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.52053645638706</v>
+        <v>19.17634566666667</v>
       </c>
       <c r="H17">
-        <v>6.52053645638706</v>
+        <v>57.529037</v>
       </c>
       <c r="I17">
-        <v>0.02995898559716515</v>
+        <v>0.07141981844820457</v>
       </c>
       <c r="J17">
-        <v>0.02995898559716515</v>
+        <v>0.07141981844820458</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.15611506523789</v>
+        <v>3.885304333333333</v>
       </c>
       <c r="N17">
-        <v>3.15611506523789</v>
+        <v>11.655913</v>
       </c>
       <c r="O17">
-        <v>0.08540843184482437</v>
+        <v>0.09776383109991163</v>
       </c>
       <c r="P17">
-        <v>0.08540843184482437</v>
+        <v>0.09776383109991162</v>
       </c>
       <c r="Q17">
-        <v>20.57956334343609</v>
+        <v>74.50593891619789</v>
       </c>
       <c r="R17">
-        <v>20.57956334343609</v>
+        <v>670.5534502457811</v>
       </c>
       <c r="S17">
-        <v>0.002558749979515555</v>
+        <v>0.006982275067956624</v>
       </c>
       <c r="T17">
-        <v>0.002558749979515555</v>
+        <v>0.006982275067956624</v>
       </c>
     </row>
   </sheetData>
